--- a/data/interviewee_demographics.xlsx
+++ b/data/interviewee_demographics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbooker/Documents/Documents/Studies/School/WFU/DS4P/Portfolio/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD75B568-7B0E-5147-BD6D-FFD46460FE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23564292-0D95-094D-83B7-588A2BC1C1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{A06FF0D8-5FD7-9A44-8A23-335DF95C9970}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>age</t>
   </si>
@@ -566,7 +566,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,6 +996,9 @@
       <c r="E18" t="s">
         <v>32</v>
       </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" t="s">
         <v>23</v>
       </c>
